--- a/__Doku/00 Datenstruktur LightLife.xlsx
+++ b/__Doku/00 Datenstruktur LightLife.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Datenstruktur Light Life" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="AdminConsole" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="117">
   <si>
     <t>Tabellenname</t>
   </si>
@@ -353,6 +353,24 @@
   </si>
   <si>
     <t>Aktuelle Testsequenz, randomisiert pro Proband</t>
+  </si>
+  <si>
+    <t>Nr</t>
+  </si>
+  <si>
+    <t>Funktionen in Admin Console</t>
+  </si>
+  <si>
+    <t>nur Anzeige, readonly</t>
+  </si>
+  <si>
+    <t>insert, update, NO delete</t>
+  </si>
+  <si>
+    <t>KEINE Anzeige</t>
+  </si>
+  <si>
+    <t>??</t>
   </si>
 </sst>
 </file>
@@ -416,7 +434,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,6 +456,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -484,6 +508,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -787,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E407"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A117" sqref="A2:A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4196,12 +4221,202 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/__Doku/00 Datenstruktur LightLife.xlsx
+++ b/__Doku/00 Datenstruktur LightLife.xlsx
@@ -4224,7 +4224,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4339,8 +4339,8 @@
       <c r="B9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>113</v>
+      <c r="C9" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="D9" s="2"/>
     </row>
